--- a/Realme/DECEMBER/All Details/20.12.2021/realme Bank Statement December-2021.xlsx
+++ b/Realme/DECEMBER/All Details/20.12.2021/realme Bank Statement December-2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\Realme\DECEMBER\All Details\19.12.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\Realme\DECEMBER\All Details\20.12.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="104">
   <si>
     <t>Date</t>
   </si>
@@ -448,7 +448,13 @@
     <t>Change to Singra</t>
   </si>
   <si>
-    <t>Date: 19.12.2021</t>
+    <t>20.12.2021</t>
+  </si>
+  <si>
+    <t>Date: 20.12.2021</t>
+  </si>
+  <si>
+    <t>Bhuiyan Mobile</t>
   </si>
 </sst>
 </file>
@@ -2697,6 +2703,9 @@
     <xf numFmtId="0" fontId="40" fillId="35" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="34" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2740,9 +2749,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="41" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="34" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3263,8 +3269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3831,12 +3837,16 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="15"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="19"/>
+      <c r="B28" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="19">
+        <v>550000</v>
+      </c>
       <c r="D28" s="19"/>
       <c r="E28" s="185">
         <f t="shared" si="0"/>
-        <v>8030</v>
+        <v>558030</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="1"/>
@@ -3847,14 +3857,22 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="15"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
+      <c r="B29" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="245">
+        <v>800000</v>
+      </c>
+      <c r="D29" s="153">
+        <v>1350700</v>
+      </c>
       <c r="E29" s="185">
         <f t="shared" si="0"/>
-        <v>8030</v>
-      </c>
-      <c r="F29" s="12"/>
+        <v>7330</v>
+      </c>
+      <c r="F29" s="246" t="s">
+        <v>68</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -3868,7 +3886,7 @@
       <c r="D30" s="19"/>
       <c r="E30" s="185">
         <f t="shared" si="0"/>
-        <v>8030</v>
+        <v>7330</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="1"/>
@@ -3884,7 +3902,7 @@
       <c r="D31" s="19"/>
       <c r="E31" s="185">
         <f t="shared" si="0"/>
-        <v>8030</v>
+        <v>7330</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="1"/>
@@ -3900,7 +3918,7 @@
       <c r="D32" s="22"/>
       <c r="E32" s="185">
         <f t="shared" si="0"/>
-        <v>8030</v>
+        <v>7330</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="1"/>
@@ -3916,7 +3934,7 @@
       <c r="D33" s="19"/>
       <c r="E33" s="185">
         <f t="shared" si="0"/>
-        <v>8030</v>
+        <v>7330</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="1"/>
@@ -3932,7 +3950,7 @@
       <c r="D34" s="19"/>
       <c r="E34" s="185">
         <f t="shared" si="0"/>
-        <v>8030</v>
+        <v>7330</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="1"/>
@@ -3948,7 +3966,7 @@
       <c r="D35" s="19"/>
       <c r="E35" s="185">
         <f t="shared" si="0"/>
-        <v>8030</v>
+        <v>7330</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="1"/>
@@ -3964,7 +3982,7 @@
       <c r="D36" s="19"/>
       <c r="E36" s="185">
         <f t="shared" si="0"/>
-        <v>8030</v>
+        <v>7330</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="1"/>
@@ -3980,7 +3998,7 @@
       <c r="D37" s="19"/>
       <c r="E37" s="185">
         <f t="shared" si="0"/>
-        <v>8030</v>
+        <v>7330</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="1"/>
@@ -3996,7 +4014,7 @@
       <c r="D38" s="19"/>
       <c r="E38" s="185">
         <f t="shared" si="0"/>
-        <v>8030</v>
+        <v>7330</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="1"/>
@@ -4012,7 +4030,7 @@
       <c r="D39" s="19"/>
       <c r="E39" s="185">
         <f t="shared" si="0"/>
-        <v>8030</v>
+        <v>7330</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="1"/>
@@ -4028,7 +4046,7 @@
       <c r="D40" s="19"/>
       <c r="E40" s="185">
         <f t="shared" si="0"/>
-        <v>8030</v>
+        <v>7330</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="1"/>
@@ -4044,7 +4062,7 @@
       <c r="D41" s="19"/>
       <c r="E41" s="185">
         <f t="shared" si="0"/>
-        <v>8030</v>
+        <v>7330</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="1"/>
@@ -4060,7 +4078,7 @@
       <c r="D42" s="19"/>
       <c r="E42" s="185">
         <f t="shared" si="0"/>
-        <v>8030</v>
+        <v>7330</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="1"/>
@@ -4073,7 +4091,7 @@
       <c r="D43" s="19"/>
       <c r="E43" s="185">
         <f t="shared" si="0"/>
-        <v>8030</v>
+        <v>7330</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="1"/>
@@ -4086,7 +4104,7 @@
       <c r="D44" s="19"/>
       <c r="E44" s="185">
         <f t="shared" si="0"/>
-        <v>8030</v>
+        <v>7330</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="1"/>
@@ -4099,7 +4117,7 @@
       <c r="D45" s="19"/>
       <c r="E45" s="185">
         <f t="shared" si="0"/>
-        <v>8030</v>
+        <v>7330</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="1"/>
@@ -4112,7 +4130,7 @@
       <c r="D46" s="19"/>
       <c r="E46" s="185">
         <f t="shared" si="0"/>
-        <v>8030</v>
+        <v>7330</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="1"/>
@@ -4125,7 +4143,7 @@
       <c r="D47" s="19"/>
       <c r="E47" s="185">
         <f t="shared" si="0"/>
-        <v>8030</v>
+        <v>7330</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="1"/>
@@ -4137,7 +4155,7 @@
       <c r="D48" s="19"/>
       <c r="E48" s="185">
         <f t="shared" si="0"/>
-        <v>8030</v>
+        <v>7330</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="1"/>
@@ -4149,7 +4167,7 @@
       <c r="D49" s="19"/>
       <c r="E49" s="185">
         <f t="shared" si="0"/>
-        <v>8030</v>
+        <v>7330</v>
       </c>
       <c r="F49" s="12"/>
       <c r="G49" s="1"/>
@@ -4161,7 +4179,7 @@
       <c r="D50" s="19"/>
       <c r="E50" s="185">
         <f t="shared" si="0"/>
-        <v>8030</v>
+        <v>7330</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="1"/>
@@ -4171,11 +4189,11 @@
       <c r="B51" s="25"/>
       <c r="C51" s="21">
         <f>SUM(C5:C50)</f>
-        <v>9313830</v>
+        <v>10663830</v>
       </c>
       <c r="D51" s="21">
         <f>SUM(D5:D50)</f>
-        <v>9305800</v>
+        <v>10656500</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="13"/>
@@ -4201,8 +4219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
@@ -4973,16 +4991,24 @@
       <c r="S21" s="4"/>
     </row>
     <row r="22" spans="1:23" s="9" customFormat="1">
-      <c r="A22" s="116"/>
+      <c r="A22" s="116" t="s">
+        <v>101</v>
+      </c>
       <c r="B22" s="124"/>
       <c r="C22" s="117"/>
       <c r="D22" s="125"/>
       <c r="E22" s="125"/>
       <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
+      <c r="G22" s="125">
+        <v>150</v>
+      </c>
       <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125"/>
+      <c r="I22" s="125">
+        <v>230</v>
+      </c>
+      <c r="J22" s="125">
+        <v>160</v>
+      </c>
       <c r="K22" s="125"/>
       <c r="L22" s="125"/>
       <c r="M22" s="155"/>
@@ -4991,7 +5017,7 @@
       <c r="P22" s="127"/>
       <c r="Q22" s="121">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="R22" s="122"/>
       <c r="S22" s="4"/>
@@ -5361,7 +5387,7 @@
       </c>
       <c r="G37" s="143">
         <f>SUM(G6:G36)</f>
-        <v>1520</v>
+        <v>1670</v>
       </c>
       <c r="H37" s="143">
         <f t="shared" si="1"/>
@@ -5369,11 +5395,11 @@
       </c>
       <c r="I37" s="143">
         <f t="shared" si="1"/>
-        <v>1835</v>
+        <v>2065</v>
       </c>
       <c r="J37" s="143">
         <f t="shared" si="1"/>
-        <v>2400</v>
+        <v>2560</v>
       </c>
       <c r="K37" s="143">
         <f t="shared" si="1"/>
@@ -5401,7 +5427,7 @@
       </c>
       <c r="Q37" s="145">
         <f>SUM(Q6:Q36)</f>
-        <v>13410</v>
+        <v>13950</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -7433,7 +7459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI226"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
@@ -9350,11 +9376,13 @@
     <row r="29" spans="1:61">
       <c r="A29" s="43"/>
       <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
+      <c r="C29" s="44">
+        <v>-377840</v>
+      </c>
       <c r="D29" s="44"/>
       <c r="E29" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-377840</v>
       </c>
       <c r="F29" s="164"/>
       <c r="G29" s="39"/>
@@ -9486,13 +9514,11 @@
     <row r="31" spans="1:61">
       <c r="A31" s="43"/>
       <c r="B31" s="44"/>
-      <c r="C31" s="44">
-        <v>-368390</v>
-      </c>
+      <c r="C31" s="44"/>
       <c r="D31" s="44"/>
       <c r="E31" s="44">
         <f t="shared" si="0"/>
-        <v>-368390</v>
+        <v>0</v>
       </c>
       <c r="F31" s="44"/>
       <c r="G31" s="61"/>
@@ -9629,7 +9655,7 @@
       </c>
       <c r="C33" s="44">
         <f>SUM(C5:C32)</f>
-        <v>-368390</v>
+        <v>-377840</v>
       </c>
       <c r="D33" s="44">
         <f>SUM(D5:D32)</f>
@@ -9637,11 +9663,11 @@
       </c>
       <c r="E33" s="44">
         <f>SUM(E5:E32)</f>
-        <v>-368390</v>
+        <v>-377840</v>
       </c>
       <c r="F33" s="44">
         <f>B33-E33</f>
-        <v>368390</v>
+        <v>377840</v>
       </c>
       <c r="G33" s="61"/>
       <c r="H33" s="167"/>
@@ -9836,7 +9862,7 @@
       <c r="D36" s="290"/>
       <c r="E36" s="218">
         <f>F33-C113+K116</f>
-        <v>-8490</v>
+        <v>0</v>
       </c>
       <c r="F36" s="213"/>
       <c r="G36" s="61"/>
@@ -10148,10 +10174,16 @@
       <c r="BI40" s="160"/>
     </row>
     <row r="41" spans="1:61">
-      <c r="A41" s="102"/>
+      <c r="A41" s="102" t="s">
+        <v>103</v>
+      </c>
       <c r="B41" s="40"/>
-      <c r="C41" s="201"/>
-      <c r="D41" s="40"/>
+      <c r="C41" s="201">
+        <v>960</v>
+      </c>
+      <c r="D41" s="40" t="s">
+        <v>101</v>
+      </c>
       <c r="E41" s="67"/>
       <c r="F41" s="40"/>
       <c r="G41" s="68"/>
@@ -14751,7 +14783,7 @@
       <c r="B113" s="274"/>
       <c r="C113" s="212">
         <f>SUM(C37:C112)</f>
-        <v>376880</v>
+        <v>377840</v>
       </c>
       <c r="D113" s="211"/>
       <c r="F113" s="90"/>
@@ -14880,7 +14912,7 @@
       <c r="B115" s="276"/>
       <c r="C115" s="210">
         <f>C113+L116</f>
-        <v>376880</v>
+        <v>377840</v>
       </c>
       <c r="D115" s="209"/>
       <c r="F115" s="90"/>
@@ -16179,7 +16211,7 @@
   <dimension ref="A1:AC225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -16198,35 +16230,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="294" t="s">
+      <c r="A1" s="295" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="296"/>
+      <c r="B1" s="296"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="297"/>
       <c r="F1" s="250"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:29" ht="21.75">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="304" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="304"/>
-      <c r="C2" s="304"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="305"/>
+      <c r="B2" s="305"/>
+      <c r="C2" s="305"/>
+      <c r="D2" s="305"/>
+      <c r="E2" s="306"/>
       <c r="F2" s="250"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:29" ht="24" thickBot="1">
-      <c r="A3" s="297" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="298"/>
-      <c r="C3" s="298"/>
-      <c r="D3" s="298"/>
-      <c r="E3" s="299"/>
+      <c r="A3" s="298" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="299"/>
+      <c r="C3" s="299"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="300"/>
       <c r="F3" s="250"/>
       <c r="G3" s="23"/>
       <c r="H3" s="1"/>
@@ -16253,13 +16285,13 @@
       <c r="AC3" s="1"/>
     </row>
     <row r="4" spans="1:29" ht="24" thickBot="1">
-      <c r="A4" s="306" t="s">
+      <c r="A4" s="307" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="307"/>
-      <c r="C4" s="307"/>
-      <c r="D4" s="307"/>
-      <c r="E4" s="308"/>
+      <c r="B4" s="308"/>
+      <c r="C4" s="308"/>
+      <c r="D4" s="308"/>
+      <c r="E4" s="309"/>
       <c r="F4" s="250"/>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
@@ -16299,7 +16331,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="226">
-        <v>7152820</v>
+        <v>7939620</v>
       </c>
       <c r="F5" s="250"/>
       <c r="J5" s="1"/>
@@ -16328,14 +16360,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="186">
-        <v>186971.7</v>
+        <v>198878.5</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="176" t="s">
         <v>54</v>
       </c>
       <c r="E6" s="187">
-        <v>8030</v>
+        <v>7330</v>
       </c>
       <c r="F6" s="250"/>
       <c r="J6" s="1"/>
@@ -16367,7 +16399,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="227">
-        <v>357431.69999999925</v>
+        <v>309438.5</v>
       </c>
       <c r="F7" s="250"/>
       <c r="H7" s="29"/>
@@ -16429,7 +16461,7 @@
         <v>84</v>
       </c>
       <c r="B9" s="186">
-        <v>13410</v>
+        <v>13950</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="176"/>
@@ -16471,7 +16503,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="187">
-        <v>376880</v>
+        <v>377840</v>
       </c>
       <c r="F10" s="250"/>
       <c r="G10" s="29"/>
@@ -16504,14 +16536,14 @@
       </c>
       <c r="B11" s="229">
         <f>B6-B10-B9+B7</f>
-        <v>173561.7</v>
+        <v>184928.5</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="187">
-        <v>1278400</v>
+      <c r="E11" s="227">
+        <v>1350700</v>
       </c>
       <c r="F11" s="250"/>
       <c r="G11" s="29"/>
@@ -16607,11 +16639,11 @@
       <c r="AC13" s="1"/>
     </row>
     <row r="14" spans="1:29" ht="21.75">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="192" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="186">
-        <v>2000000</v>
+      <c r="B14" s="229">
+        <v>2800000</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="176"/>
@@ -16679,7 +16711,7 @@
       </c>
       <c r="B16" s="186">
         <f>B5+B6-B9+B14-B15</f>
-        <v>9173561.6999999993</v>
+        <v>9984928.5</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="176" t="s">
@@ -16687,7 +16719,7 @@
       </c>
       <c r="E16" s="187">
         <f>E5+E6+E7+E10+E11+E12</f>
-        <v>9173561.6999999993</v>
+        <v>9984928.5</v>
       </c>
       <c r="F16" s="250"/>
       <c r="G16" s="153">
@@ -16750,13 +16782,13 @@
       <c r="AC17" s="1"/>
     </row>
     <row r="18" spans="1:29" ht="23.25" thickBot="1">
-      <c r="A18" s="300" t="s">
+      <c r="A18" s="301" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="301"/>
-      <c r="C18" s="301"/>
-      <c r="D18" s="301"/>
-      <c r="E18" s="302"/>
+      <c r="B18" s="302"/>
+      <c r="C18" s="302"/>
+      <c r="D18" s="302"/>
+      <c r="E18" s="303"/>
       <c r="F18" s="250"/>
       <c r="G18" s="8"/>
       <c r="H18" s="173"/>
@@ -16860,11 +16892,11 @@
       <c r="AC20" s="1"/>
     </row>
     <row r="21" spans="1:29" ht="21.75">
-      <c r="A21" s="309"/>
-      <c r="B21" s="309"/>
-      <c r="C21" s="309"/>
-      <c r="D21" s="309"/>
-      <c r="E21" s="309"/>
+      <c r="A21" s="294"/>
+      <c r="B21" s="294"/>
+      <c r="C21" s="294"/>
+      <c r="D21" s="294"/>
+      <c r="E21" s="294"/>
       <c r="F21" s="251"/>
       <c r="G21" s="190"/>
       <c r="H21" s="1"/>
